--- a/INTLINE/data/134/DEUSTATIS/National accounts - Growth contributions to price-adjusted GDP quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Growth contributions to price-adjusted GDP quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="74">
   <si>
     <t>National accounts - Growth contributions to price-adjusted
 GDP: Germany, quarters, original and adjusted data, use
@@ -124,6 +124,9 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>Quarter 1</t>
   </si>
   <si>
@@ -146,6 +149,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
   <si>
     <t>VGR-VWA-011</t>
@@ -229,7 +235,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:21:17</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:58:33</t>
   </si>
 </sst>
 </file>
@@ -794,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="527">
+  <cellXfs count="543">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -1350,6 +1356,22 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -1854,6 +1876,22 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -2370,6 +2408,22 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -2380,6 +2434,22 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -2919,596 +2989,614 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="275">
+      <c r="A5" t="s" s="283">
         <v>4</v>
       </c>
-      <c r="B5" s="276"/>
-      <c r="C5" t="s" s="277">
+      <c r="B5" s="284"/>
+      <c r="C5" t="s" s="285">
         <v>5</v>
       </c>
-      <c r="D5" s="278"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="280"/>
-      <c r="G5" t="s" s="281">
+      <c r="D5" s="286"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="288"/>
+      <c r="G5" t="s" s="289">
         <v>6</v>
       </c>
-      <c r="H5" s="282"/>
-      <c r="I5" s="283"/>
-      <c r="J5" s="284"/>
-      <c r="K5" t="s" s="285">
+      <c r="H5" s="290"/>
+      <c r="I5" s="291"/>
+      <c r="J5" s="292"/>
+      <c r="K5" t="s" s="293">
         <v>7</v>
       </c>
-      <c r="L5" s="286"/>
-      <c r="M5" s="287"/>
-      <c r="N5" s="288"/>
-      <c r="O5" t="s" s="289">
+      <c r="L5" s="294"/>
+      <c r="M5" s="295"/>
+      <c r="N5" s="296"/>
+      <c r="O5" t="s" s="297">
         <v>8</v>
       </c>
-      <c r="P5" s="290"/>
-      <c r="Q5" s="291"/>
-      <c r="R5" s="292"/>
-      <c r="S5" t="s" s="293">
+      <c r="P5" s="298"/>
+      <c r="Q5" s="299"/>
+      <c r="R5" s="300"/>
+      <c r="S5" t="s" s="301">
         <v>9</v>
       </c>
-      <c r="T5" s="294"/>
-      <c r="U5" s="295"/>
-      <c r="V5" s="296"/>
-      <c r="W5" t="s" s="297">
+      <c r="T5" s="302"/>
+      <c r="U5" s="303"/>
+      <c r="V5" s="304"/>
+      <c r="W5" t="s" s="305">
         <v>10</v>
       </c>
-      <c r="X5" s="298"/>
-      <c r="Y5" s="299"/>
-      <c r="Z5" s="300"/>
-      <c r="AA5" t="s" s="301">
+      <c r="X5" s="306"/>
+      <c r="Y5" s="307"/>
+      <c r="Z5" s="308"/>
+      <c r="AA5" t="s" s="309">
         <v>11</v>
       </c>
-      <c r="AB5" s="302"/>
-      <c r="AC5" s="303"/>
-      <c r="AD5" s="304"/>
-      <c r="AE5" t="s" s="305">
+      <c r="AB5" s="310"/>
+      <c r="AC5" s="311"/>
+      <c r="AD5" s="312"/>
+      <c r="AE5" t="s" s="313">
         <v>12</v>
       </c>
-      <c r="AF5" s="306"/>
-      <c r="AG5" s="307"/>
-      <c r="AH5" s="308"/>
-      <c r="AI5" t="s" s="309">
+      <c r="AF5" s="314"/>
+      <c r="AG5" s="315"/>
+      <c r="AH5" s="316"/>
+      <c r="AI5" t="s" s="317">
         <v>13</v>
       </c>
-      <c r="AJ5" s="310"/>
-      <c r="AK5" s="311"/>
-      <c r="AL5" s="312"/>
-      <c r="AM5" t="s" s="313">
+      <c r="AJ5" s="318"/>
+      <c r="AK5" s="319"/>
+      <c r="AL5" s="320"/>
+      <c r="AM5" t="s" s="321">
         <v>14</v>
       </c>
-      <c r="AN5" s="314"/>
-      <c r="AO5" s="315"/>
-      <c r="AP5" s="316"/>
-      <c r="AQ5" t="s" s="317">
+      <c r="AN5" s="322"/>
+      <c r="AO5" s="323"/>
+      <c r="AP5" s="324"/>
+      <c r="AQ5" t="s" s="325">
         <v>15</v>
       </c>
-      <c r="AR5" s="318"/>
-      <c r="AS5" s="319"/>
-      <c r="AT5" s="320"/>
-      <c r="AU5" t="s" s="321">
+      <c r="AR5" s="326"/>
+      <c r="AS5" s="327"/>
+      <c r="AT5" s="328"/>
+      <c r="AU5" t="s" s="329">
         <v>16</v>
       </c>
-      <c r="AV5" s="322"/>
-      <c r="AW5" s="323"/>
-      <c r="AX5" s="324"/>
-      <c r="AY5" t="s" s="325">
+      <c r="AV5" s="330"/>
+      <c r="AW5" s="331"/>
+      <c r="AX5" s="332"/>
+      <c r="AY5" t="s" s="333">
         <v>17</v>
       </c>
-      <c r="AZ5" s="326"/>
-      <c r="BA5" s="327"/>
-      <c r="BB5" s="328"/>
-      <c r="BC5" t="s" s="329">
+      <c r="AZ5" s="334"/>
+      <c r="BA5" s="335"/>
+      <c r="BB5" s="336"/>
+      <c r="BC5" t="s" s="337">
         <v>18</v>
       </c>
-      <c r="BD5" s="330"/>
-      <c r="BE5" s="331"/>
-      <c r="BF5" s="332"/>
-      <c r="BG5" t="s" s="333">
+      <c r="BD5" s="338"/>
+      <c r="BE5" s="339"/>
+      <c r="BF5" s="340"/>
+      <c r="BG5" t="s" s="341">
         <v>19</v>
       </c>
-      <c r="BH5" s="334"/>
-      <c r="BI5" s="335"/>
-      <c r="BJ5" s="336"/>
-      <c r="BK5" t="s" s="337">
+      <c r="BH5" s="342"/>
+      <c r="BI5" s="343"/>
+      <c r="BJ5" s="344"/>
+      <c r="BK5" t="s" s="345">
         <v>20</v>
       </c>
-      <c r="BL5" s="338"/>
-      <c r="BM5" s="339"/>
-      <c r="BN5" s="340"/>
-      <c r="BO5" t="s" s="341">
+      <c r="BL5" s="346"/>
+      <c r="BM5" s="347"/>
+      <c r="BN5" s="348"/>
+      <c r="BO5" t="s" s="349">
         <v>21</v>
       </c>
-      <c r="BP5" s="342"/>
-      <c r="BQ5" s="343"/>
-      <c r="BR5" s="344"/>
-      <c r="BS5" t="s" s="345">
+      <c r="BP5" s="350"/>
+      <c r="BQ5" s="351"/>
+      <c r="BR5" s="352"/>
+      <c r="BS5" t="s" s="353">
         <v>22</v>
       </c>
-      <c r="BT5" s="346"/>
-      <c r="BU5" s="347"/>
-      <c r="BV5" s="348"/>
-      <c r="BW5" t="s" s="349">
+      <c r="BT5" s="354"/>
+      <c r="BU5" s="355"/>
+      <c r="BV5" s="356"/>
+      <c r="BW5" t="s" s="357">
         <v>23</v>
       </c>
-      <c r="BX5" s="350"/>
-      <c r="BY5" s="351"/>
-      <c r="BZ5" s="352"/>
-      <c r="CA5" t="s" s="353">
+      <c r="BX5" s="358"/>
+      <c r="BY5" s="359"/>
+      <c r="BZ5" s="360"/>
+      <c r="CA5" t="s" s="361">
         <v>24</v>
       </c>
-      <c r="CB5" s="354"/>
-      <c r="CC5" s="355"/>
-      <c r="CD5" s="356"/>
-      <c r="CE5" t="s" s="357">
+      <c r="CB5" s="362"/>
+      <c r="CC5" s="363"/>
+      <c r="CD5" s="364"/>
+      <c r="CE5" t="s" s="365">
         <v>25</v>
       </c>
-      <c r="CF5" s="358"/>
-      <c r="CG5" s="359"/>
-      <c r="CH5" s="360"/>
-      <c r="CI5" t="s" s="361">
+      <c r="CF5" s="366"/>
+      <c r="CG5" s="367"/>
+      <c r="CH5" s="368"/>
+      <c r="CI5" t="s" s="369">
         <v>26</v>
       </c>
-      <c r="CJ5" s="362"/>
-      <c r="CK5" s="363"/>
-      <c r="CL5" s="364"/>
-      <c r="CM5" t="s" s="365">
+      <c r="CJ5" s="370"/>
+      <c r="CK5" s="371"/>
+      <c r="CL5" s="372"/>
+      <c r="CM5" t="s" s="373">
         <v>27</v>
       </c>
-      <c r="CN5" s="366"/>
-      <c r="CO5" s="367"/>
-      <c r="CP5" s="368"/>
-      <c r="CQ5" t="s" s="369">
+      <c r="CN5" s="374"/>
+      <c r="CO5" s="375"/>
+      <c r="CP5" s="376"/>
+      <c r="CQ5" t="s" s="377">
         <v>28</v>
       </c>
-      <c r="CR5" s="370"/>
-      <c r="CS5" s="371"/>
-      <c r="CT5" s="372"/>
-      <c r="CU5" t="s" s="373">
+      <c r="CR5" s="378"/>
+      <c r="CS5" s="379"/>
+      <c r="CT5" s="380"/>
+      <c r="CU5" t="s" s="381">
         <v>29</v>
       </c>
-      <c r="CV5" s="374"/>
-      <c r="CW5" s="375"/>
-      <c r="CX5" s="376"/>
-      <c r="CY5" t="s" s="377">
+      <c r="CV5" s="382"/>
+      <c r="CW5" s="383"/>
+      <c r="CX5" s="384"/>
+      <c r="CY5" t="s" s="385">
         <v>30</v>
       </c>
-      <c r="CZ5" s="378"/>
-      <c r="DA5" s="379"/>
-      <c r="DB5" s="380"/>
-      <c r="DC5" t="s" s="381">
+      <c r="CZ5" s="386"/>
+      <c r="DA5" s="387"/>
+      <c r="DB5" s="388"/>
+      <c r="DC5" t="s" s="389">
         <v>31</v>
       </c>
-      <c r="DD5" s="382"/>
-      <c r="DE5" s="383"/>
-      <c r="DF5" s="384"/>
-      <c r="DG5" t="s" s="385">
+      <c r="DD5" s="390"/>
+      <c r="DE5" s="391"/>
+      <c r="DF5" s="392"/>
+      <c r="DG5" t="s" s="393">
         <v>32</v>
       </c>
-      <c r="DH5" s="386"/>
-      <c r="DI5" s="387"/>
-      <c r="DJ5" s="388"/>
-      <c r="DK5" t="s" s="389">
+      <c r="DH5" s="394"/>
+      <c r="DI5" s="395"/>
+      <c r="DJ5" s="396"/>
+      <c r="DK5" t="s" s="397">
         <v>33</v>
       </c>
-      <c r="DL5" s="390"/>
-      <c r="DM5" s="391"/>
-      <c r="DN5" s="392"/>
-      <c r="DO5" t="s" s="393">
+      <c r="DL5" s="398"/>
+      <c r="DM5" s="399"/>
+      <c r="DN5" s="400"/>
+      <c r="DO5" t="s" s="401">
         <v>34</v>
       </c>
-      <c r="DP5" s="394"/>
-      <c r="DQ5" s="395"/>
-      <c r="DR5" s="396"/>
-      <c r="DS5" t="s" s="397">
+      <c r="DP5" s="402"/>
+      <c r="DQ5" s="403"/>
+      <c r="DR5" s="404"/>
+      <c r="DS5" t="s" s="405">
         <v>35</v>
       </c>
-      <c r="DT5" s="398"/>
-      <c r="DU5" s="399"/>
-      <c r="DV5" s="400"/>
+      <c r="DT5" s="406"/>
+      <c r="DU5" s="407"/>
+      <c r="DV5" s="408"/>
+      <c r="DW5" t="s" s="409">
+        <v>36</v>
+      </c>
+      <c r="DX5" s="410"/>
+      <c r="DY5" s="411"/>
+      <c r="DZ5" s="412"/>
     </row>
     <row r="6">
-      <c r="A6" s="401"/>
-      <c r="B6" s="402"/>
-      <c r="C6" t="s" s="403">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s" s="404">
+      <c r="A6" s="413"/>
+      <c r="B6" s="414"/>
+      <c r="C6" t="s" s="415">
         <v>37</v>
       </c>
-      <c r="E6" t="s" s="405">
+      <c r="D6" t="s" s="416">
         <v>38</v>
       </c>
-      <c r="F6" t="s" s="406">
+      <c r="E6" t="s" s="417">
         <v>39</v>
       </c>
-      <c r="G6" t="s" s="407">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s" s="408">
+      <c r="F6" t="s" s="418">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s" s="419">
         <v>37</v>
       </c>
-      <c r="I6" t="s" s="409">
+      <c r="H6" t="s" s="420">
         <v>38</v>
       </c>
-      <c r="J6" t="s" s="410">
+      <c r="I6" t="s" s="421">
         <v>39</v>
       </c>
-      <c r="K6" t="s" s="411">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s" s="412">
+      <c r="J6" t="s" s="422">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s" s="423">
         <v>37</v>
       </c>
-      <c r="M6" t="s" s="413">
+      <c r="L6" t="s" s="424">
         <v>38</v>
       </c>
-      <c r="N6" t="s" s="414">
+      <c r="M6" t="s" s="425">
         <v>39</v>
       </c>
-      <c r="O6" t="s" s="415">
-        <v>36</v>
-      </c>
-      <c r="P6" t="s" s="416">
+      <c r="N6" t="s" s="426">
+        <v>40</v>
+      </c>
+      <c r="O6" t="s" s="427">
         <v>37</v>
       </c>
-      <c r="Q6" t="s" s="417">
+      <c r="P6" t="s" s="428">
         <v>38</v>
       </c>
-      <c r="R6" t="s" s="418">
+      <c r="Q6" t="s" s="429">
         <v>39</v>
       </c>
-      <c r="S6" t="s" s="419">
-        <v>36</v>
-      </c>
-      <c r="T6" t="s" s="420">
+      <c r="R6" t="s" s="430">
+        <v>40</v>
+      </c>
+      <c r="S6" t="s" s="431">
         <v>37</v>
       </c>
-      <c r="U6" t="s" s="421">
+      <c r="T6" t="s" s="432">
         <v>38</v>
       </c>
-      <c r="V6" t="s" s="422">
+      <c r="U6" t="s" s="433">
         <v>39</v>
       </c>
-      <c r="W6" t="s" s="423">
-        <v>36</v>
-      </c>
-      <c r="X6" t="s" s="424">
+      <c r="V6" t="s" s="434">
+        <v>40</v>
+      </c>
+      <c r="W6" t="s" s="435">
         <v>37</v>
       </c>
-      <c r="Y6" t="s" s="425">
+      <c r="X6" t="s" s="436">
         <v>38</v>
       </c>
-      <c r="Z6" t="s" s="426">
+      <c r="Y6" t="s" s="437">
         <v>39</v>
       </c>
-      <c r="AA6" t="s" s="427">
-        <v>36</v>
-      </c>
-      <c r="AB6" t="s" s="428">
+      <c r="Z6" t="s" s="438">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="AC6" t="s" s="429">
+      <c r="AB6" t="s" s="440">
         <v>38</v>
       </c>
-      <c r="AD6" t="s" s="430">
+      <c r="AC6" t="s" s="441">
         <v>39</v>
       </c>
-      <c r="AE6" t="s" s="431">
-        <v>36</v>
-      </c>
-      <c r="AF6" t="s" s="432">
+      <c r="AD6" t="s" s="442">
+        <v>40</v>
+      </c>
+      <c r="AE6" t="s" s="443">
         <v>37</v>
       </c>
-      <c r="AG6" t="s" s="433">
+      <c r="AF6" t="s" s="444">
         <v>38</v>
       </c>
-      <c r="AH6" t="s" s="434">
+      <c r="AG6" t="s" s="445">
         <v>39</v>
       </c>
-      <c r="AI6" t="s" s="435">
-        <v>36</v>
-      </c>
-      <c r="AJ6" t="s" s="436">
+      <c r="AH6" t="s" s="446">
+        <v>40</v>
+      </c>
+      <c r="AI6" t="s" s="447">
         <v>37</v>
       </c>
-      <c r="AK6" t="s" s="437">
+      <c r="AJ6" t="s" s="448">
         <v>38</v>
       </c>
-      <c r="AL6" t="s" s="438">
+      <c r="AK6" t="s" s="449">
         <v>39</v>
       </c>
-      <c r="AM6" t="s" s="439">
-        <v>36</v>
-      </c>
-      <c r="AN6" t="s" s="440">
+      <c r="AL6" t="s" s="450">
+        <v>40</v>
+      </c>
+      <c r="AM6" t="s" s="451">
         <v>37</v>
       </c>
-      <c r="AO6" t="s" s="441">
+      <c r="AN6" t="s" s="452">
         <v>38</v>
       </c>
-      <c r="AP6" t="s" s="442">
+      <c r="AO6" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="AQ6" t="s" s="443">
-        <v>36</v>
-      </c>
-      <c r="AR6" t="s" s="444">
+      <c r="AP6" t="s" s="454">
+        <v>40</v>
+      </c>
+      <c r="AQ6" t="s" s="455">
         <v>37</v>
       </c>
-      <c r="AS6" t="s" s="445">
+      <c r="AR6" t="s" s="456">
         <v>38</v>
       </c>
-      <c r="AT6" t="s" s="446">
+      <c r="AS6" t="s" s="457">
         <v>39</v>
       </c>
-      <c r="AU6" t="s" s="447">
-        <v>36</v>
-      </c>
-      <c r="AV6" t="s" s="448">
+      <c r="AT6" t="s" s="458">
+        <v>40</v>
+      </c>
+      <c r="AU6" t="s" s="459">
         <v>37</v>
       </c>
-      <c r="AW6" t="s" s="449">
+      <c r="AV6" t="s" s="460">
         <v>38</v>
       </c>
-      <c r="AX6" t="s" s="450">
+      <c r="AW6" t="s" s="461">
         <v>39</v>
       </c>
-      <c r="AY6" t="s" s="451">
-        <v>36</v>
-      </c>
-      <c r="AZ6" t="s" s="452">
+      <c r="AX6" t="s" s="462">
+        <v>40</v>
+      </c>
+      <c r="AY6" t="s" s="463">
         <v>37</v>
       </c>
-      <c r="BA6" t="s" s="453">
+      <c r="AZ6" t="s" s="464">
         <v>38</v>
       </c>
-      <c r="BB6" t="s" s="454">
+      <c r="BA6" t="s" s="465">
         <v>39</v>
       </c>
-      <c r="BC6" t="s" s="455">
-        <v>36</v>
-      </c>
-      <c r="BD6" t="s" s="456">
+      <c r="BB6" t="s" s="466">
+        <v>40</v>
+      </c>
+      <c r="BC6" t="s" s="467">
         <v>37</v>
       </c>
-      <c r="BE6" t="s" s="457">
+      <c r="BD6" t="s" s="468">
         <v>38</v>
       </c>
-      <c r="BF6" t="s" s="458">
+      <c r="BE6" t="s" s="469">
         <v>39</v>
       </c>
-      <c r="BG6" t="s" s="459">
-        <v>36</v>
-      </c>
-      <c r="BH6" t="s" s="460">
+      <c r="BF6" t="s" s="470">
+        <v>40</v>
+      </c>
+      <c r="BG6" t="s" s="471">
         <v>37</v>
       </c>
-      <c r="BI6" t="s" s="461">
+      <c r="BH6" t="s" s="472">
         <v>38</v>
       </c>
-      <c r="BJ6" t="s" s="462">
+      <c r="BI6" t="s" s="473">
         <v>39</v>
       </c>
-      <c r="BK6" t="s" s="463">
-        <v>36</v>
-      </c>
-      <c r="BL6" t="s" s="464">
+      <c r="BJ6" t="s" s="474">
+        <v>40</v>
+      </c>
+      <c r="BK6" t="s" s="475">
         <v>37</v>
       </c>
-      <c r="BM6" t="s" s="465">
+      <c r="BL6" t="s" s="476">
         <v>38</v>
       </c>
-      <c r="BN6" t="s" s="466">
+      <c r="BM6" t="s" s="477">
         <v>39</v>
       </c>
-      <c r="BO6" t="s" s="467">
-        <v>36</v>
-      </c>
-      <c r="BP6" t="s" s="468">
+      <c r="BN6" t="s" s="478">
+        <v>40</v>
+      </c>
+      <c r="BO6" t="s" s="479">
         <v>37</v>
       </c>
-      <c r="BQ6" t="s" s="469">
+      <c r="BP6" t="s" s="480">
         <v>38</v>
       </c>
-      <c r="BR6" t="s" s="470">
+      <c r="BQ6" t="s" s="481">
         <v>39</v>
       </c>
-      <c r="BS6" t="s" s="471">
-        <v>36</v>
-      </c>
-      <c r="BT6" t="s" s="472">
+      <c r="BR6" t="s" s="482">
+        <v>40</v>
+      </c>
+      <c r="BS6" t="s" s="483">
         <v>37</v>
       </c>
-      <c r="BU6" t="s" s="473">
+      <c r="BT6" t="s" s="484">
         <v>38</v>
       </c>
-      <c r="BV6" t="s" s="474">
+      <c r="BU6" t="s" s="485">
         <v>39</v>
       </c>
-      <c r="BW6" t="s" s="475">
-        <v>36</v>
-      </c>
-      <c r="BX6" t="s" s="476">
+      <c r="BV6" t="s" s="486">
+        <v>40</v>
+      </c>
+      <c r="BW6" t="s" s="487">
         <v>37</v>
       </c>
-      <c r="BY6" t="s" s="477">
+      <c r="BX6" t="s" s="488">
         <v>38</v>
       </c>
-      <c r="BZ6" t="s" s="478">
+      <c r="BY6" t="s" s="489">
         <v>39</v>
       </c>
-      <c r="CA6" t="s" s="479">
-        <v>36</v>
-      </c>
-      <c r="CB6" t="s" s="480">
+      <c r="BZ6" t="s" s="490">
+        <v>40</v>
+      </c>
+      <c r="CA6" t="s" s="491">
         <v>37</v>
       </c>
-      <c r="CC6" t="s" s="481">
+      <c r="CB6" t="s" s="492">
         <v>38</v>
       </c>
-      <c r="CD6" t="s" s="482">
+      <c r="CC6" t="s" s="493">
         <v>39</v>
       </c>
-      <c r="CE6" t="s" s="483">
-        <v>36</v>
-      </c>
-      <c r="CF6" t="s" s="484">
+      <c r="CD6" t="s" s="494">
+        <v>40</v>
+      </c>
+      <c r="CE6" t="s" s="495">
         <v>37</v>
       </c>
-      <c r="CG6" t="s" s="485">
+      <c r="CF6" t="s" s="496">
         <v>38</v>
       </c>
-      <c r="CH6" t="s" s="486">
+      <c r="CG6" t="s" s="497">
         <v>39</v>
       </c>
-      <c r="CI6" t="s" s="487">
-        <v>36</v>
-      </c>
-      <c r="CJ6" t="s" s="488">
+      <c r="CH6" t="s" s="498">
+        <v>40</v>
+      </c>
+      <c r="CI6" t="s" s="499">
         <v>37</v>
       </c>
-      <c r="CK6" t="s" s="489">
+      <c r="CJ6" t="s" s="500">
         <v>38</v>
       </c>
-      <c r="CL6" t="s" s="490">
+      <c r="CK6" t="s" s="501">
         <v>39</v>
       </c>
-      <c r="CM6" t="s" s="491">
-        <v>36</v>
-      </c>
-      <c r="CN6" t="s" s="492">
+      <c r="CL6" t="s" s="502">
+        <v>40</v>
+      </c>
+      <c r="CM6" t="s" s="503">
         <v>37</v>
       </c>
-      <c r="CO6" t="s" s="493">
+      <c r="CN6" t="s" s="504">
         <v>38</v>
       </c>
-      <c r="CP6" t="s" s="494">
+      <c r="CO6" t="s" s="505">
         <v>39</v>
       </c>
-      <c r="CQ6" t="s" s="495">
-        <v>36</v>
-      </c>
-      <c r="CR6" t="s" s="496">
+      <c r="CP6" t="s" s="506">
+        <v>40</v>
+      </c>
+      <c r="CQ6" t="s" s="507">
         <v>37</v>
       </c>
-      <c r="CS6" t="s" s="497">
+      <c r="CR6" t="s" s="508">
         <v>38</v>
       </c>
-      <c r="CT6" t="s" s="498">
+      <c r="CS6" t="s" s="509">
         <v>39</v>
       </c>
-      <c r="CU6" t="s" s="499">
-        <v>36</v>
-      </c>
-      <c r="CV6" t="s" s="500">
+      <c r="CT6" t="s" s="510">
+        <v>40</v>
+      </c>
+      <c r="CU6" t="s" s="511">
         <v>37</v>
       </c>
-      <c r="CW6" t="s" s="501">
+      <c r="CV6" t="s" s="512">
         <v>38</v>
       </c>
-      <c r="CX6" t="s" s="502">
+      <c r="CW6" t="s" s="513">
         <v>39</v>
       </c>
-      <c r="CY6" t="s" s="503">
-        <v>36</v>
-      </c>
-      <c r="CZ6" t="s" s="504">
+      <c r="CX6" t="s" s="514">
+        <v>40</v>
+      </c>
+      <c r="CY6" t="s" s="515">
         <v>37</v>
       </c>
-      <c r="DA6" t="s" s="505">
+      <c r="CZ6" t="s" s="516">
         <v>38</v>
       </c>
-      <c r="DB6" t="s" s="506">
+      <c r="DA6" t="s" s="517">
         <v>39</v>
       </c>
-      <c r="DC6" t="s" s="507">
-        <v>36</v>
-      </c>
-      <c r="DD6" t="s" s="508">
+      <c r="DB6" t="s" s="518">
+        <v>40</v>
+      </c>
+      <c r="DC6" t="s" s="519">
         <v>37</v>
       </c>
-      <c r="DE6" t="s" s="509">
+      <c r="DD6" t="s" s="520">
         <v>38</v>
       </c>
-      <c r="DF6" t="s" s="510">
+      <c r="DE6" t="s" s="521">
         <v>39</v>
       </c>
-      <c r="DG6" t="s" s="511">
-        <v>36</v>
-      </c>
-      <c r="DH6" t="s" s="512">
+      <c r="DF6" t="s" s="522">
+        <v>40</v>
+      </c>
+      <c r="DG6" t="s" s="523">
         <v>37</v>
       </c>
-      <c r="DI6" t="s" s="513">
+      <c r="DH6" t="s" s="524">
         <v>38</v>
       </c>
-      <c r="DJ6" t="s" s="514">
+      <c r="DI6" t="s" s="525">
         <v>39</v>
       </c>
-      <c r="DK6" t="s" s="515">
-        <v>36</v>
-      </c>
-      <c r="DL6" t="s" s="516">
+      <c r="DJ6" t="s" s="526">
+        <v>40</v>
+      </c>
+      <c r="DK6" t="s" s="527">
         <v>37</v>
       </c>
-      <c r="DM6" t="s" s="517">
+      <c r="DL6" t="s" s="528">
         <v>38</v>
       </c>
-      <c r="DN6" t="s" s="518">
+      <c r="DM6" t="s" s="529">
         <v>39</v>
       </c>
-      <c r="DO6" t="s" s="519">
-        <v>36</v>
-      </c>
-      <c r="DP6" t="s" s="520">
+      <c r="DN6" t="s" s="530">
+        <v>40</v>
+      </c>
+      <c r="DO6" t="s" s="531">
         <v>37</v>
       </c>
-      <c r="DQ6" t="s" s="521">
+      <c r="DP6" t="s" s="532">
         <v>38</v>
       </c>
-      <c r="DR6" t="s" s="522">
+      <c r="DQ6" t="s" s="533">
         <v>39</v>
       </c>
-      <c r="DS6" t="s" s="523">
-        <v>36</v>
-      </c>
-      <c r="DT6" t="s" s="524">
+      <c r="DR6" t="s" s="534">
+        <v>40</v>
+      </c>
+      <c r="DS6" t="s" s="535">
         <v>37</v>
       </c>
-      <c r="DU6" t="s" s="525">
+      <c r="DT6" t="s" s="536">
         <v>38</v>
       </c>
-      <c r="DV6" t="s" s="526">
+      <c r="DU6" t="s" s="537">
         <v>39</v>
+      </c>
+      <c r="DV6" t="s" s="538">
+        <v>40</v>
+      </c>
+      <c r="DW6" t="s" s="539">
+        <v>37</v>
+      </c>
+      <c r="DX6" t="s" s="540">
+        <v>38</v>
+      </c>
+      <c r="DY6" t="s" s="541">
+        <v>39</v>
+      </c>
+      <c r="DZ6" t="s" s="542">
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="33.75" customHeight="true">
       <c r="A7" t="s" s="14">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="n" s="10">
         <v>4.0</v>
@@ -3865,30 +3953,42 @@
         <v>7.0</v>
       </c>
       <c r="DU8" t="n" s="10">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="DV8" t="n" s="10">
-        <v>2.8</v>
+        <v>3.0</v>
+      </c>
+      <c r="DW8" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="DX8" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY8" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ8" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s" s="13">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s" s="10">
         <v>44</v>
       </c>
-      <c r="B9" t="s" s="13">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s" s="10">
-        <v>43</v>
-      </c>
       <c r="D9" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="n" s="10">
         <v>2.7</v>
@@ -4239,36 +4339,48 @@
         <v>-2.1</v>
       </c>
       <c r="DS9" t="n" s="10">
-        <v>-4.2</v>
+        <v>-4.3</v>
       </c>
       <c r="DT9" t="n" s="10">
         <v>4.8</v>
       </c>
       <c r="DU9" t="n" s="10">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="DV9" t="n" s="10">
-        <v>1.8</v>
+        <v>1.9</v>
+      </c>
+      <c r="DW9" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="DX9" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY9" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ9" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s" s="13">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" t="n" s="10">
         <v>1.4</v>
@@ -4619,36 +4731,48 @@
         <v>-3.0</v>
       </c>
       <c r="DS10" t="n" s="10">
-        <v>-4.7</v>
+        <v>-4.8</v>
       </c>
       <c r="DT10" t="n" s="10">
         <v>3.3</v>
       </c>
       <c r="DU10" t="n" s="10">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="DV10" t="n" s="10">
-        <v>1.3</v>
+        <v>1.6</v>
+      </c>
+      <c r="DW10" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="DX10" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY10" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ10" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s" s="13">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" t="n" s="10">
         <v>1.3</v>
@@ -5005,30 +5129,42 @@
         <v>1.5</v>
       </c>
       <c r="DU11" t="n" s="10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="DV11" t="n" s="10">
-        <v>0.4</v>
+        <v>0.2</v>
+      </c>
+      <c r="DW11" t="n" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="DX11" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY11" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ11" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="n" s="10">
         <v>1.4</v>
@@ -5379,36 +5515,48 @@
         <v>-1.0</v>
       </c>
       <c r="DS12" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="DT12" t="n" s="10">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="DU12" t="n" s="10">
-        <v>2.0</v>
+        <v>1.9</v>
       </c>
       <c r="DV12" t="n" s="10">
-        <v>1.0</v>
+        <v>1.1</v>
+      </c>
+      <c r="DW12" t="n" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="DX12" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY12" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ12" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s" s="13">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" t="n" s="10">
         <v>2.3</v>
@@ -5762,33 +5910,45 @@
         <v>-0.2</v>
       </c>
       <c r="DT13" t="n" s="10">
-        <v>2.0</v>
+        <v>1.9</v>
       </c>
       <c r="DU13" t="n" s="10">
         <v>0.0</v>
       </c>
       <c r="DV13" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.5</v>
+      </c>
+      <c r="DW13" t="n" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="DX13" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY13" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ13" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s" s="13">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" t="n" s="10">
         <v>0.5</v>
@@ -6149,26 +6309,38 @@
       </c>
       <c r="DV14" t="n" s="10">
         <v>-0.2</v>
+      </c>
+      <c r="DW14" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="DX14" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY14" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ14" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s" s="13">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" t="n" s="10">
         <v>1.6</v>
@@ -6528,27 +6700,39 @@
         <v>0.1</v>
       </c>
       <c r="DV15" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.3</v>
+      </c>
+      <c r="DW15" t="n" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="DX15" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY15" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ15" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s" s="13">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16" t="n" s="10">
         <v>0.2</v>
@@ -6909,26 +7093,38 @@
       </c>
       <c r="DV16" t="n" s="10">
         <v>0.0</v>
+      </c>
+      <c r="DW16" t="n" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="DX16" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY16" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ16" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="9">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s" s="13">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" t="n" s="10">
         <v>-0.9</v>
@@ -7279,36 +7475,48 @@
         <v>-1.3</v>
       </c>
       <c r="DS17" t="n" s="10">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="DT17" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="DU17" t="n" s="10">
         <v>1.9</v>
       </c>
       <c r="DV17" t="n" s="10">
-        <v>1.4</v>
+        <v>1.6</v>
+      </c>
+      <c r="DW17" t="n" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="DX17" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY17" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ17" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="9">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s" s="13">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G18" t="n" s="10">
         <v>-1.2</v>
@@ -7659,36 +7867,48 @@
         <v>1.2</v>
       </c>
       <c r="DS18" t="n" s="10">
-        <v>1.1</v>
+        <v>1.0</v>
       </c>
       <c r="DT18" t="n" s="10">
         <v>3.8</v>
       </c>
       <c r="DU18" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="DV18" t="n" s="10">
-        <v>-1.0</v>
+        <v>-1.1</v>
+      </c>
+      <c r="DW18" t="n" s="10">
+        <v>-1.6</v>
+      </c>
+      <c r="DX18" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY18" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ18" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="9">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s" s="13">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G19" t="n" s="10">
         <v>0.4</v>
@@ -8042,33 +8262,45 @@
         <v>-0.1</v>
       </c>
       <c r="DT19" t="n" s="10">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="DU19" t="n" s="10">
         <v>3.2</v>
       </c>
       <c r="DV19" t="n" s="10">
-        <v>3.7</v>
+        <v>3.1</v>
+      </c>
+      <c r="DW19" t="n" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="DX19" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY19" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ19" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="9">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s" s="13">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G20" t="n" s="10">
         <v>-1.5</v>
@@ -8422,29 +8654,41 @@
         <v>1.1</v>
       </c>
       <c r="DT20" t="n" s="10">
-        <v>-7.4</v>
+        <v>-7.5</v>
       </c>
       <c r="DU20" t="n" s="10">
         <v>-3.5</v>
       </c>
       <c r="DV20" t="n" s="10">
-        <v>-4.6</v>
+        <v>-4.2</v>
+      </c>
+      <c r="DW20" t="n" s="10">
+        <v>-3.0</v>
+      </c>
+      <c r="DX20" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY20" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ20" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="21" ht="33.75" customHeight="true">
       <c r="A21" t="s" s="14">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" t="n" s="10">
         <v>1.0</v>
@@ -8804,27 +9048,39 @@
         <v>-0.2</v>
       </c>
       <c r="DS22" t="n" s="10">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="DT22" t="n" s="10">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="DU22" t="n" s="10">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="DV22" t="n" s="10">
         <v>-0.5</v>
+      </c>
+      <c r="DW22" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="DX22" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY22" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ22" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="9">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s" s="13">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s" s="10">
         <v>44</v>
-      </c>
-      <c r="B23" t="s" s="13">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s" s="10">
-        <v>43</v>
       </c>
       <c r="D23" t="n" s="10">
         <v>0.8</v>
@@ -9076,7 +9332,7 @@
         <v>0.3</v>
       </c>
       <c r="CI23" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="CJ23" t="n" s="10">
         <v>0.3</v>
@@ -9088,7 +9344,7 @@
         <v>0.1</v>
       </c>
       <c r="CM23" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="CN23" t="n" s="10">
         <v>0.3</v>
@@ -9151,16 +9407,16 @@
         <v>0.0</v>
       </c>
       <c r="DH23" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="DI23" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="DJ23" t="n" s="10">
         <v>0.5</v>
       </c>
       <c r="DK23" t="n" s="10">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="DL23" t="n" s="10">
         <v>0.0</v>
@@ -9175,10 +9431,10 @@
         <v>-0.9</v>
       </c>
       <c r="DP23" t="n" s="10">
-        <v>-5.7</v>
+        <v>-5.8</v>
       </c>
       <c r="DQ23" t="n" s="10">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="DR23" t="n" s="10">
         <v>-1.2</v>
@@ -9187,24 +9443,36 @@
         <v>-2.8</v>
       </c>
       <c r="DT23" t="n" s="10">
-        <v>2.9</v>
+        <v>3.0</v>
       </c>
       <c r="DU23" t="n" s="10">
         <v>2.3</v>
       </c>
       <c r="DV23" t="n" s="10">
         <v>-0.7</v>
+      </c>
+      <c r="DW23" t="n" s="10">
+        <v>-0.1</v>
+      </c>
+      <c r="DX23" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY23" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ23" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s" s="13">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D24" t="n" s="10">
         <v>0.5</v>
@@ -9564,27 +9832,39 @@
         <v>-1.4</v>
       </c>
       <c r="DS24" t="n" s="10">
-        <v>-2.6</v>
+        <v>-2.7</v>
       </c>
       <c r="DT24" t="n" s="10">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="DU24" t="n" s="10">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="DV24" t="n" s="10">
-        <v>-0.9</v>
+        <v>-0.7</v>
+      </c>
+      <c r="DW24" t="n" s="10">
+        <v>-0.1</v>
+      </c>
+      <c r="DX24" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY24" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ24" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s" s="13">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D25" t="n" s="10">
         <v>0.3</v>
@@ -9854,7 +10134,7 @@
         <v>0.0</v>
       </c>
       <c r="CO25" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="CP25" t="n" s="10">
         <v>0.0</v>
@@ -9884,7 +10164,7 @@
         <v>0.3</v>
       </c>
       <c r="CY25" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="CZ25" t="n" s="10">
         <v>0.2</v>
@@ -9896,7 +10176,7 @@
         <v>0.1</v>
       </c>
       <c r="DC25" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="DD25" t="n" s="10">
         <v>0.1</v>
@@ -9908,10 +10188,10 @@
         <v>0.2</v>
       </c>
       <c r="DG25" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DH25" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="DI25" t="n" s="10">
         <v>-0.1</v>
@@ -9926,45 +10206,57 @@
         <v>0.0</v>
       </c>
       <c r="DM25" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="DN25" t="n" s="10">
         <v>0.1</v>
       </c>
       <c r="DO25" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="DP25" t="n" s="10">
         <v>0.2</v>
       </c>
       <c r="DQ25" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="DR25" t="n" s="10">
         <v>0.2</v>
       </c>
       <c r="DS25" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="DT25" t="n" s="10">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="DU25" t="n" s="10">
         <v>-0.7</v>
       </c>
       <c r="DV25" t="n" s="10">
-        <v>0.2</v>
+        <v>0.0</v>
+      </c>
+      <c r="DW25" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="DX25" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY25" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ25" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s" s="13">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26" t="n" s="10">
         <v>0.3</v>
@@ -10291,7 +10583,7 @@
         <v>-0.4</v>
       </c>
       <c r="DH26" t="n" s="10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="DI26" t="n" s="10">
         <v>0.9</v>
@@ -10312,10 +10604,10 @@
         <v>0.0</v>
       </c>
       <c r="DO26" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="DP26" t="n" s="10">
-        <v>-2.0</v>
+        <v>-1.9</v>
       </c>
       <c r="DQ26" t="n" s="10">
         <v>-0.7</v>
@@ -10324,27 +10616,39 @@
         <v>1.0</v>
       </c>
       <c r="DS26" t="n" s="10">
-        <v>2.0</v>
+        <v>2.1</v>
       </c>
       <c r="DT26" t="n" s="10">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="DU26" t="n" s="10">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="DV26" t="n" s="10">
         <v>0.2</v>
+      </c>
+      <c r="DW26" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="DX26" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY26" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ26" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s" s="13">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D27" t="n" s="10">
         <v>0.2</v>
@@ -10713,18 +11017,30 @@
         <v>-0.6</v>
       </c>
       <c r="DV27" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
+      </c>
+      <c r="DW27" t="n" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="DX27" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY27" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ27" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s" s="13">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D28" t="n" s="10">
         <v>0.3</v>
@@ -11093,18 +11409,30 @@
         <v>-0.3</v>
       </c>
       <c r="DV28" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
+      </c>
+      <c r="DW28" t="n" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="DX28" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY28" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ28" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s" s="13">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" t="n" s="10">
         <v>0.0</v>
@@ -11473,18 +11801,30 @@
         <v>-0.4</v>
       </c>
       <c r="DV29" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
+      </c>
+      <c r="DW29" t="n" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="DX29" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY29" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ29" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s" s="13">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30" t="n" s="10">
         <v>0.0</v>
@@ -11854,17 +12194,29 @@
       </c>
       <c r="DV30" t="n" s="10">
         <v>0.1</v>
+      </c>
+      <c r="DW30" t="n" s="10">
+        <v>-0.1</v>
+      </c>
+      <c r="DX30" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY30" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ30" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="9">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s" s="13">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31" t="n" s="10">
         <v>0.0</v>
@@ -12179,7 +12531,7 @@
         <v>0.4</v>
       </c>
       <c r="DD31" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="DE31" t="n" s="10">
         <v>-0.1</v>
@@ -12188,63 +12540,75 @@
         <v>0.0</v>
       </c>
       <c r="DG31" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="DH31" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="DI31" t="n" s="10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="DJ31" t="n" s="10">
         <v>-0.3</v>
       </c>
       <c r="DK31" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="DL31" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DM31" t="n" s="10">
+        <v>-0.3</v>
+      </c>
+      <c r="DN31" t="n" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="DO31" t="n" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="DP31" t="n" s="10">
         <v>-0.4</v>
       </c>
-      <c r="DN31" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="DO31" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="DP31" t="n" s="10">
-        <v>-0.5</v>
-      </c>
       <c r="DQ31" t="n" s="10">
-        <v>-1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="DR31" t="n" s="10">
         <v>0.5</v>
       </c>
       <c r="DS31" t="n" s="10">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="DT31" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.9</v>
       </c>
       <c r="DU31" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="DV31" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
+      </c>
+      <c r="DW31" t="n" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="DX31" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY31" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ31" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="9">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s" s="13">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D32" t="n" s="10">
         <v>-1.6</v>
@@ -12604,27 +12968,39 @@
         <v>1.0</v>
       </c>
       <c r="DS32" t="n" s="10">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="DT32" t="n" s="10">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="DU32" t="n" s="10">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="DV32" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
+      </c>
+      <c r="DW32" t="n" s="10">
+        <v>-1.4</v>
+      </c>
+      <c r="DX32" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY32" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ32" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="9">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s" s="13">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D33" t="n" s="10">
         <v>-1.4</v>
@@ -12984,27 +13360,39 @@
         <v>2.0</v>
       </c>
       <c r="DS33" t="n" s="10">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="DT33" t="n" s="10">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="DU33" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.3</v>
       </c>
       <c r="DV33" t="n" s="10">
-        <v>2.2</v>
+        <v>1.7</v>
+      </c>
+      <c r="DW33" t="n" s="10">
+        <v>-1.0</v>
+      </c>
+      <c r="DX33" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY33" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ33" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="9">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s" s="13">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" t="n" s="10">
         <v>-0.1</v>
@@ -13364,32 +13752,44 @@
         <v>-1.0</v>
       </c>
       <c r="DS34" t="n" s="10">
+        <v>-1.7</v>
+      </c>
+      <c r="DT34" t="n" s="10">
+        <v>-1.0</v>
+      </c>
+      <c r="DU34" t="n" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="DV34" t="n" s="10">
         <v>-1.6</v>
       </c>
-      <c r="DT34" t="n" s="10">
-        <v>-0.9</v>
-      </c>
-      <c r="DU34" t="n" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="DV34" t="n" s="10">
-        <v>-2.0</v>
+      <c r="DW34" t="n" s="10">
+        <v>-0.4</v>
+      </c>
+      <c r="DX34" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY34" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ34" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="33.75" customHeight="true">
       <c r="A35" t="s" s="14">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D36" t="n" s="10">
         <v>1.0</v>
@@ -13404,7 +13804,7 @@
         <v>2.2</v>
       </c>
       <c r="H36" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="I36" t="n" s="10">
         <v>-0.2</v>
@@ -13437,7 +13837,7 @@
         <v>1.3</v>
       </c>
       <c r="S36" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="T36" t="n" s="10">
         <v>0.6</v>
@@ -13464,7 +13864,7 @@
         <v>0.1</v>
       </c>
       <c r="AB36" t="n" s="10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC36" t="n" s="10">
         <v>0.0</v>
@@ -13500,7 +13900,7 @@
         <v>0.5</v>
       </c>
       <c r="AN36" t="n" s="10">
-        <v>1.0</v>
+        <v>0.9</v>
       </c>
       <c r="AO36" t="n" s="10">
         <v>0.3</v>
@@ -13533,16 +13933,16 @@
         <v>-0.2</v>
       </c>
       <c r="AY36" t="n" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AZ36" t="n" s="10">
         <v>0.1</v>
       </c>
       <c r="BA36" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="BB36" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="BC36" t="n" s="10">
         <v>-0.5</v>
@@ -13563,7 +13963,7 @@
         <v>0.7</v>
       </c>
       <c r="BI36" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="BJ36" t="n" s="10">
         <v>1.1</v>
@@ -13578,46 +13978,46 @@
         <v>0.4</v>
       </c>
       <c r="BN36" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="BO36" t="n" s="10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="BP36" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="BQ36" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="BR36" t="n" s="10">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="BS36" t="n" s="10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="BT36" t="n" s="10">
         <v>-0.2</v>
       </c>
       <c r="BU36" t="n" s="10">
-        <v>-0.6</v>
+        <v>0.0</v>
       </c>
       <c r="BV36" t="n" s="10">
-        <v>0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="BW36" t="n" s="10">
-        <v>-2.4</v>
+        <v>-2.1</v>
       </c>
       <c r="BX36" t="n" s="10">
         <v>-1.2</v>
       </c>
       <c r="BY36" t="n" s="10">
-        <v>-0.4</v>
+        <v>0.0</v>
       </c>
       <c r="BZ36" t="n" s="10">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="CA36" t="n" s="10">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="CB36" t="n" s="10">
         <v>1.5</v>
@@ -13641,13 +14041,13 @@
         <v>-0.2</v>
       </c>
       <c r="CI36" t="n" s="10">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="CJ36" t="n" s="10">
         <v>-0.4</v>
       </c>
       <c r="CK36" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="CL36" t="n" s="10">
         <v>0.5</v>
@@ -13677,13 +14077,13 @@
         <v>0.6</v>
       </c>
       <c r="CU36" t="n" s="10">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="CV36" t="n" s="10">
         <v>0.5</v>
       </c>
       <c r="CW36" t="n" s="10">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="CX36" t="n" s="10">
         <v>0.6</v>
@@ -13695,7 +14095,7 @@
         <v>0.0</v>
       </c>
       <c r="DA36" t="n" s="10">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="DB36" t="n" s="10">
         <v>0.5</v>
@@ -13704,7 +14104,7 @@
         <v>0.7</v>
       </c>
       <c r="DD36" t="n" s="10">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="DE36" t="n" s="10">
         <v>0.3</v>
@@ -13719,63 +14119,75 @@
         <v>0.5</v>
       </c>
       <c r="DI36" t="n" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="DJ36" t="n" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="DK36" t="n" s="10">
         <v>0.8</v>
       </c>
-      <c r="DJ36" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="DK36" t="n" s="10">
-        <v>0.9</v>
-      </c>
       <c r="DL36" t="n" s="10">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="DM36" t="n" s="10">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="DN36" t="n" s="10">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="DO36" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="DP36" t="n" s="10">
-        <v>-7.8</v>
+        <v>-8.0</v>
       </c>
       <c r="DQ36" t="n" s="10">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="DR36" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.6</v>
       </c>
       <c r="DS36" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="DT36" t="n" s="10">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="DU36" t="n" s="10">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="DV36" t="n" s="10">
-        <v>-0.4</v>
+        <v>0.3</v>
+      </c>
+      <c r="DW36" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="DX36" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY36" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ36" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="9">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s" s="13">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s" s="10">
         <v>44</v>
       </c>
-      <c r="B37" t="s" s="13">
-        <v>45</v>
-      </c>
-      <c r="C37" t="s" s="10">
-        <v>43</v>
-      </c>
       <c r="D37" t="n" s="10">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E37" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="F37" t="n" s="10">
         <v>0.2</v>
@@ -13790,10 +14202,10 @@
         <v>0.4</v>
       </c>
       <c r="J37" t="n" s="10">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K37" t="n" s="10">
-        <v>-1.1</v>
+        <v>-1.0</v>
       </c>
       <c r="L37" t="n" s="10">
         <v>0.3</v>
@@ -13802,7 +14214,7 @@
         <v>0.3</v>
       </c>
       <c r="N37" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="O37" t="n" s="10">
         <v>1.3</v>
@@ -13814,13 +14226,13 @@
         <v>0.4</v>
       </c>
       <c r="R37" t="n" s="10">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="S37" t="n" s="10">
         <v>-0.2</v>
       </c>
       <c r="T37" t="n" s="10">
-        <v>1.0</v>
+        <v>1.1</v>
       </c>
       <c r="U37" t="n" s="10">
         <v>0.2</v>
@@ -13832,10 +14244,10 @@
         <v>0.6</v>
       </c>
       <c r="X37" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y37" t="n" s="10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Z37" t="n" s="10">
         <v>0.2</v>
@@ -13856,7 +14268,7 @@
         <v>0.3</v>
       </c>
       <c r="AF37" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AG37" t="n" s="10">
         <v>0.6</v>
@@ -13883,7 +14295,7 @@
         <v>0.7</v>
       </c>
       <c r="AO37" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="AP37" t="n" s="10">
         <v>-0.2</v>
@@ -13904,7 +14316,7 @@
         <v>-0.6</v>
       </c>
       <c r="AV37" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AW37" t="n" s="10">
         <v>0.3</v>
@@ -13919,13 +14331,13 @@
         <v>0.3</v>
       </c>
       <c r="BA37" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="BB37" t="n" s="10">
         <v>0.0</v>
       </c>
       <c r="BC37" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="BD37" t="n" s="10">
         <v>-0.2</v>
@@ -13934,28 +14346,28 @@
         <v>0.0</v>
       </c>
       <c r="BF37" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="BG37" t="n" s="10">
         <v>0.3</v>
       </c>
       <c r="BH37" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="BI37" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="BJ37" t="n" s="10">
         <v>0.0</v>
       </c>
       <c r="BK37" t="n" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="BL37" t="n" s="10">
         <v>0.2</v>
       </c>
       <c r="BM37" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="BN37" t="n" s="10">
         <v>0.5</v>
@@ -13964,7 +14376,7 @@
         <v>-0.6</v>
       </c>
       <c r="BP37" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BQ37" t="n" s="10">
         <v>0.2</v>
@@ -13973,7 +14385,7 @@
         <v>0.1</v>
       </c>
       <c r="BS37" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BT37" t="n" s="10">
         <v>0.1</v>
@@ -13982,7 +14394,7 @@
         <v>0.2</v>
       </c>
       <c r="BV37" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BW37" t="n" s="10">
         <v>0.3</v>
@@ -14006,7 +14418,7 @@
         <v>0.5</v>
       </c>
       <c r="CD37" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="CE37" t="n" s="10">
         <v>0.1</v>
@@ -14021,7 +14433,7 @@
         <v>0.3</v>
       </c>
       <c r="CI37" t="n" s="10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="CJ37" t="n" s="10">
         <v>0.1</v>
@@ -14036,22 +14448,22 @@
         <v>0.1</v>
       </c>
       <c r="CN37" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="CO37" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="CP37" t="n" s="10">
         <v>-0.1</v>
       </c>
       <c r="CQ37" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="CR37" t="n" s="10">
         <v>0.4</v>
       </c>
       <c r="CS37" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="CT37" t="n" s="10">
         <v>0.5</v>
@@ -14069,7 +14481,7 @@
         <v>0.5</v>
       </c>
       <c r="CY37" t="n" s="10">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="CZ37" t="n" s="10">
         <v>0.3</v>
@@ -14084,75 +14496,87 @@
         <v>0.0</v>
       </c>
       <c r="DD37" t="n" s="10">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="DE37" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="DF37" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="DG37" t="n" s="10">
         <v>0.2</v>
       </c>
       <c r="DH37" t="n" s="10">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="DI37" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="DJ37" t="n" s="10">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="DK37" t="n" s="10">
         <v>0.6</v>
       </c>
       <c r="DL37" t="n" s="10">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="DM37" t="n" s="10">
-        <v>-1.1</v>
+        <v>-0.9</v>
       </c>
       <c r="DN37" t="n" s="10">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="DO37" t="n" s="10">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="DP37" t="n" s="10">
-        <v>-4.2</v>
+        <v>-4.8</v>
       </c>
       <c r="DQ37" t="n" s="10">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="DR37" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="DS37" t="n" s="10">
-        <v>-2.5</v>
+        <v>-2.1</v>
       </c>
       <c r="DT37" t="n" s="10">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="DU37" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DV37" t="n" s="10">
-        <v>0.2</v>
+        <v>0.4</v>
+      </c>
+      <c r="DW37" t="n" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="DX37" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY37" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ37" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s" s="13">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D38" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E38" t="n" s="10">
         <v>-0.4</v>
@@ -14173,7 +14597,7 @@
         <v>0.7</v>
       </c>
       <c r="K38" t="n" s="10">
-        <v>-1.0</v>
+        <v>-0.9</v>
       </c>
       <c r="L38" t="n" s="10">
         <v>0.3</v>
@@ -14182,7 +14606,7 @@
         <v>0.3</v>
       </c>
       <c r="N38" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="O38" t="n" s="10">
         <v>0.8</v>
@@ -14197,7 +14621,7 @@
         <v>0.5</v>
       </c>
       <c r="S38" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="T38" t="n" s="10">
         <v>0.8</v>
@@ -14224,7 +14648,7 @@
         <v>0.1</v>
       </c>
       <c r="AB38" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AC38" t="n" s="10">
         <v>-0.1</v>
@@ -14233,13 +14657,13 @@
         <v>0.4</v>
       </c>
       <c r="AE38" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="AF38" t="n" s="10">
         <v>0.2</v>
       </c>
       <c r="AG38" t="n" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AH38" t="n" s="10">
         <v>0.3</v>
@@ -14260,7 +14684,7 @@
         <v>0.1</v>
       </c>
       <c r="AN38" t="n" s="10">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AO38" t="n" s="10">
         <v>0.0</v>
@@ -14272,7 +14696,7 @@
         <v>0.7</v>
       </c>
       <c r="AR38" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="AS38" t="n" s="10">
         <v>-0.1</v>
@@ -14305,7 +14729,7 @@
         <v>-0.1</v>
       </c>
       <c r="BC38" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="BD38" t="n" s="10">
         <v>-0.1</v>
@@ -14317,10 +14741,10 @@
         <v>0.2</v>
       </c>
       <c r="BG38" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BH38" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="BI38" t="n" s="10">
         <v>0.1</v>
@@ -14332,7 +14756,7 @@
         <v>0.5</v>
       </c>
       <c r="BL38" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BM38" t="n" s="10">
         <v>0.1</v>
@@ -14353,7 +14777,7 @@
         <v>-0.1</v>
       </c>
       <c r="BS38" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="BT38" t="n" s="10">
         <v>-0.2</v>
@@ -14368,10 +14792,10 @@
         <v>0.2</v>
       </c>
       <c r="BX38" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="BY38" t="n" s="10">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="BZ38" t="n" s="10">
         <v>-0.2</v>
@@ -14404,7 +14828,7 @@
         <v>0.4</v>
       </c>
       <c r="CJ38" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="CK38" t="n" s="10">
         <v>0.0</v>
@@ -14452,7 +14876,7 @@
         <v>0.6</v>
       </c>
       <c r="CZ38" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="DA38" t="n" s="10">
         <v>0.2</v>
@@ -14464,72 +14888,84 @@
         <v>0.0</v>
       </c>
       <c r="DD38" t="n" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="DE38" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="DF38" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="DG38" t="n" s="10">
         <v>0.2</v>
       </c>
       <c r="DH38" t="n" s="10">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="DI38" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="DJ38" t="n" s="10">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="DK38" t="n" s="10">
         <v>0.3</v>
       </c>
       <c r="DL38" t="n" s="10">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="DM38" t="n" s="10">
-        <v>-1.3</v>
+        <v>-1.1</v>
       </c>
       <c r="DN38" t="n" s="10">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="DO38" t="n" s="10">
         <v>-0.9</v>
       </c>
       <c r="DP38" t="n" s="10">
-        <v>-4.5</v>
+        <v>-5.0</v>
       </c>
       <c r="DQ38" t="n" s="10">
         <v>3.4</v>
       </c>
       <c r="DR38" t="n" s="10">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="DS38" t="n" s="10">
-        <v>-2.5</v>
+        <v>-2.1</v>
       </c>
       <c r="DT38" t="n" s="10">
-        <v>3.0</v>
+        <v>2.5</v>
       </c>
       <c r="DU38" t="n" s="10">
         <v>0.8</v>
       </c>
       <c r="DV38" t="n" s="10">
-        <v>0.0</v>
+        <v>0.4</v>
+      </c>
+      <c r="DW38" t="n" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="DX38" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY38" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ38" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s" s="13">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D39" t="n" s="10">
         <v>0.3</v>
@@ -14889,33 +15325,45 @@
         <v>0.2</v>
       </c>
       <c r="DS39" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DT39" t="n" s="10">
         <v>1.0</v>
       </c>
       <c r="DU39" t="n" s="10">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="DV39" t="n" s="10">
-        <v>0.2</v>
+        <v>0.0</v>
+      </c>
+      <c r="DW39" t="n" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="DX39" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY39" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ39" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s" s="13">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D40" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E40" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="F40" t="n" s="10">
         <v>0.1</v>
@@ -14924,7 +15372,7 @@
         <v>0.7</v>
       </c>
       <c r="H40" t="n" s="10">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="I40" t="n" s="10">
         <v>-0.6</v>
@@ -14933,16 +15381,16 @@
         <v>-0.3</v>
       </c>
       <c r="K40" t="n" s="10">
-        <v>-0.9</v>
+        <v>-1.0</v>
       </c>
       <c r="L40" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="M40" t="n" s="10">
         <v>0.2</v>
       </c>
       <c r="N40" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="O40" t="n" s="10">
         <v>0.7</v>
@@ -14960,7 +15408,7 @@
         <v>0.1</v>
       </c>
       <c r="T40" t="n" s="10">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="U40" t="n" s="10">
         <v>-0.1</v>
@@ -14972,7 +15420,7 @@
         <v>-0.6</v>
       </c>
       <c r="X40" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Y40" t="n" s="10">
         <v>-0.2</v>
@@ -14981,16 +15429,16 @@
         <v>0.1</v>
       </c>
       <c r="AA40" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC40" t="n" s="10">
         <v>0.1</v>
       </c>
       <c r="AD40" t="n" s="10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AE40" t="n" s="10">
         <v>0.4</v>
@@ -15005,7 +15453,7 @@
         <v>0.0</v>
       </c>
       <c r="AI40" t="n" s="10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AJ40" t="n" s="10">
         <v>0.1</v>
@@ -15020,7 +15468,7 @@
         <v>0.2</v>
       </c>
       <c r="AN40" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AO40" t="n" s="10">
         <v>0.2</v>
@@ -15029,7 +15477,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ40" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AR40" t="n" s="10">
         <v>-0.4</v>
@@ -15041,10 +15489,10 @@
         <v>-0.7</v>
       </c>
       <c r="AU40" t="n" s="10">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="AV40" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="AW40" t="n" s="10">
         <v>-0.2</v>
@@ -15062,25 +15510,25 @@
         <v>-0.5</v>
       </c>
       <c r="BB40" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="BC40" t="n" s="10">
+        <v>-0.5</v>
+      </c>
+      <c r="BD40" t="n" s="10">
+        <v>-0.4</v>
+      </c>
+      <c r="BE40" t="n" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="BF40" t="n" s="10">
         <v>-0.6</v>
       </c>
-      <c r="BD40" t="n" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="BE40" t="n" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="BF40" t="n" s="10">
-        <v>-0.7</v>
-      </c>
       <c r="BG40" t="n" s="10">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="BH40" t="n" s="10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="BI40" t="n" s="10">
         <v>0.1</v>
@@ -15089,13 +15537,13 @@
         <v>1.1</v>
       </c>
       <c r="BK40" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BL40" t="n" s="10">
         <v>0.7</v>
       </c>
       <c r="BM40" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="BN40" t="n" s="10">
         <v>-0.1</v>
@@ -15107,49 +15555,49 @@
         <v>0.0</v>
       </c>
       <c r="BQ40" t="n" s="10">
-        <v>-0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BR40" t="n" s="10">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="BS40" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="BT40" t="n" s="10">
         <v>-0.3</v>
       </c>
       <c r="BU40" t="n" s="10">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="BV40" t="n" s="10">
-        <v>0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="BW40" t="n" s="10">
-        <v>-2.7</v>
+        <v>-2.4</v>
       </c>
       <c r="BX40" t="n" s="10">
         <v>-1.2</v>
       </c>
       <c r="BY40" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="BZ40" t="n" s="10">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="CA40" t="n" s="10">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="CB40" t="n" s="10">
         <v>1.3</v>
       </c>
       <c r="CC40" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="CD40" t="n" s="10">
         <v>0.5</v>
       </c>
       <c r="CE40" t="n" s="10">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="CF40" t="n" s="10">
         <v>-0.1</v>
@@ -15161,10 +15609,10 @@
         <v>-0.5</v>
       </c>
       <c r="CI40" t="n" s="10">
-        <v>-1.1</v>
+        <v>-1.0</v>
       </c>
       <c r="CJ40" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="CK40" t="n" s="10">
         <v>-0.2</v>
@@ -15173,7 +15621,7 @@
         <v>0.3</v>
       </c>
       <c r="CM40" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="CN40" t="n" s="10">
         <v>0.7</v>
@@ -15194,13 +15642,13 @@
         <v>-0.4</v>
       </c>
       <c r="CT40" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="CU40" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="CV40" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="CW40" t="n" s="10">
         <v>0.3</v>
@@ -15209,10 +15657,10 @@
         <v>0.2</v>
       </c>
       <c r="CY40" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="CZ40" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="DA40" t="n" s="10">
         <v>0.4</v>
@@ -15224,10 +15672,10 @@
         <v>0.7</v>
       </c>
       <c r="DD40" t="n" s="10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="DE40" t="n" s="10">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="DF40" t="n" s="10">
         <v>0.3</v>
@@ -15236,60 +15684,72 @@
         <v>-0.3</v>
       </c>
       <c r="DH40" t="n" s="10">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="DI40" t="n" s="10">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="DJ40" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="DK40" t="n" s="10">
         <v>0.3</v>
       </c>
       <c r="DL40" t="n" s="10">
-        <v>-1.5</v>
+        <v>-1.1</v>
       </c>
       <c r="DM40" t="n" s="10">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="DN40" t="n" s="10">
-        <v>-0.3</v>
+        <v>0.0</v>
       </c>
       <c r="DO40" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="DP40" t="n" s="10">
-        <v>-3.6</v>
+        <v>-3.3</v>
       </c>
       <c r="DQ40" t="n" s="10">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="DR40" t="n" s="10">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="DS40" t="n" s="10">
-        <v>2.0</v>
+        <v>1.8</v>
       </c>
       <c r="DT40" t="n" s="10">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
       <c r="DU40" t="n" s="10">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="DV40" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.1</v>
+      </c>
+      <c r="DW40" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="DX40" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY40" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ40" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s" s="13">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D41" t="n" s="10">
         <v>0.5</v>
@@ -15361,10 +15821,10 @@
         <v>0.0</v>
       </c>
       <c r="AA41" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AB41" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="AC41" t="n" s="10">
         <v>0.1</v>
@@ -15379,7 +15839,7 @@
         <v>-0.2</v>
       </c>
       <c r="AG41" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AH41" t="n" s="10">
         <v>0.1</v>
@@ -15445,7 +15905,7 @@
         <v>0.0</v>
       </c>
       <c r="BC41" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="BD41" t="n" s="10">
         <v>0.0</v>
@@ -15454,7 +15914,7 @@
         <v>-0.1</v>
       </c>
       <c r="BF41" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="BG41" t="n" s="10">
         <v>0.1</v>
@@ -15472,7 +15932,7 @@
         <v>-0.1</v>
       </c>
       <c r="BL41" t="n" s="10">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="BM41" t="n" s="10">
         <v>0.2</v>
@@ -15481,7 +15941,7 @@
         <v>0.4</v>
       </c>
       <c r="BO41" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="BP41" t="n" s="10">
         <v>-0.1</v>
@@ -15556,7 +16016,7 @@
         <v>-0.5</v>
       </c>
       <c r="CN41" t="n" s="10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="CO41" t="n" s="10">
         <v>0.1</v>
@@ -15589,7 +16049,7 @@
         <v>0.4</v>
       </c>
       <c r="CY41" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="CZ41" t="n" s="10">
         <v>0.0</v>
@@ -15619,7 +16079,7 @@
         <v>0.2</v>
       </c>
       <c r="DI41" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="DJ41" t="n" s="10">
         <v>0.2</v>
@@ -15628,48 +16088,60 @@
         <v>0.1</v>
       </c>
       <c r="DL41" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DM41" t="n" s="10">
         <v>0.1</v>
       </c>
       <c r="DN41" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="DO41" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DP41" t="n" s="10">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="DQ41" t="n" s="10">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="DR41" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="DS41" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="DT41" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="DU41" t="n" s="10">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="DV41" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.3</v>
+      </c>
+      <c r="DW41" t="n" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="DX41" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY41" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ41" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s" s="13">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D42" t="n" s="10">
         <v>0.2</v>
@@ -15936,7 +16408,7 @@
         <v>-0.2</v>
       </c>
       <c r="CN42" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="CO42" t="n" s="10">
         <v>0.0</v>
@@ -15996,7 +16468,7 @@
         <v>0.1</v>
       </c>
       <c r="DH42" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="DI42" t="n" s="10">
         <v>0.0</v>
@@ -16008,10 +16480,10 @@
         <v>0.1</v>
       </c>
       <c r="DL42" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="DM42" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DN42" t="n" s="10">
         <v>-0.2</v>
@@ -16023,33 +16495,45 @@
         <v>-1.1</v>
       </c>
       <c r="DQ42" t="n" s="10">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="DR42" t="n" s="10">
         <v>0.1</v>
       </c>
       <c r="DS42" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DT42" t="n" s="10">
         <v>-0.1</v>
       </c>
       <c r="DU42" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="DV42" t="n" s="10">
         <v>-0.1</v>
+      </c>
+      <c r="DW42" t="n" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="DX42" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY42" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ42" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s" s="13">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D43" t="n" s="10">
         <v>0.2</v>
@@ -16061,7 +16545,7 @@
         <v>0.3</v>
       </c>
       <c r="G43" t="n" s="10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n" s="10">
         <v>0.1</v>
@@ -16352,7 +16836,7 @@
         <v>0.2</v>
       </c>
       <c r="CZ43" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DA43" t="n" s="10">
         <v>0.1</v>
@@ -16406,30 +16890,42 @@
         <v>0.1</v>
       </c>
       <c r="DR43" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="DS43" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="DT43" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="DU43" t="n" s="10">
         <v>-0.2</v>
       </c>
       <c r="DV43" t="n" s="10">
         <v>-0.2</v>
+      </c>
+      <c r="DW43" t="n" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="DX43" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY43" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ43" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s" s="13">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D44" t="n" s="10">
         <v>0.0</v>
@@ -16741,7 +17237,7 @@
         <v>0.0</v>
       </c>
       <c r="DC44" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="DD44" t="n" s="10">
         <v>0.0</v>
@@ -16762,7 +17258,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ44" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DK44" t="n" s="10">
         <v>0.1</v>
@@ -16777,7 +17273,7 @@
         <v>0.0</v>
       </c>
       <c r="DO44" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="DP44" t="n" s="10">
         <v>-0.1</v>
@@ -16789,27 +17285,39 @@
         <v>0.0</v>
       </c>
       <c r="DS44" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DT44" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DU44" t="n" s="10">
         <v>0.0</v>
       </c>
       <c r="DV44" t="n" s="10">
         <v>0.0</v>
+      </c>
+      <c r="DW44" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="DX44" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY44" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ44" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="9">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s" s="13">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D45" t="n" s="10">
         <v>-0.1</v>
@@ -16824,7 +17332,7 @@
         <v>0.2</v>
       </c>
       <c r="H45" t="n" s="10">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="I45" t="n" s="10">
         <v>-0.2</v>
@@ -16842,7 +17350,7 @@
         <v>0.0</v>
       </c>
       <c r="N45" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="O45" t="n" s="10">
         <v>-0.3</v>
@@ -16851,7 +17359,7 @@
         <v>0.2</v>
       </c>
       <c r="Q45" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="R45" t="n" s="10">
         <v>0.2</v>
@@ -16863,7 +17371,7 @@
         <v>0.0</v>
       </c>
       <c r="U45" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="V45" t="n" s="10">
         <v>-0.2</v>
@@ -16875,19 +17383,19 @@
         <v>-0.4</v>
       </c>
       <c r="Y45" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="Z45" t="n" s="10">
         <v>0.1</v>
       </c>
       <c r="AA45" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB45" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AC45" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="AD45" t="n" s="10">
         <v>0.1</v>
@@ -16899,7 +17407,7 @@
         <v>0.2</v>
       </c>
       <c r="AG45" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="AH45" t="n" s="10">
         <v>-0.1</v>
@@ -16914,7 +17422,7 @@
         <v>0.2</v>
       </c>
       <c r="AL45" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="AM45" t="n" s="10">
         <v>0.1</v>
@@ -16932,7 +17440,7 @@
         <v>0.0</v>
       </c>
       <c r="AR45" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="AS45" t="n" s="10">
         <v>-0.2</v>
@@ -16962,7 +17470,7 @@
         <v>-0.5</v>
       </c>
       <c r="BB45" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="BC45" t="n" s="10">
         <v>-0.4</v>
@@ -16971,16 +17479,16 @@
         <v>-0.3</v>
       </c>
       <c r="BE45" t="n" s="10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="BF45" t="n" s="10">
         <v>-0.4</v>
       </c>
       <c r="BG45" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="BH45" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BI45" t="n" s="10">
         <v>-0.3</v>
@@ -16992,7 +17500,7 @@
         <v>0.5</v>
       </c>
       <c r="BL45" t="n" s="10">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="BM45" t="n" s="10">
         <v>-0.1</v>
@@ -17001,46 +17509,46 @@
         <v>-0.5</v>
       </c>
       <c r="BO45" t="n" s="10">
-        <v>1.0</v>
+        <v>0.9</v>
       </c>
       <c r="BP45" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="BQ45" t="n" s="10">
-        <v>-0.4</v>
+        <v>0.0</v>
       </c>
       <c r="BR45" t="n" s="10">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="BS45" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="BT45" t="n" s="10">
         <v>-0.2</v>
       </c>
       <c r="BU45" t="n" s="10">
-        <v>-0.5</v>
+        <v>0.1</v>
       </c>
       <c r="BV45" t="n" s="10">
-        <v>0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="BW45" t="n" s="10">
-        <v>-1.3</v>
+        <v>-0.9</v>
       </c>
       <c r="BX45" t="n" s="10">
         <v>-0.9</v>
       </c>
       <c r="BY45" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="BZ45" t="n" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="CA45" t="n" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="CB45" t="n" s="10">
         <v>0.6</v>
-      </c>
-      <c r="CA45" t="n" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="CB45" t="n" s="10">
-        <v>0.5</v>
       </c>
       <c r="CC45" t="n" s="10">
         <v>-0.4</v>
@@ -17055,7 +17563,7 @@
         <v>-0.1</v>
       </c>
       <c r="CG45" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="CH45" t="n" s="10">
         <v>-0.7</v>
@@ -17064,7 +17572,7 @@
         <v>-1.0</v>
       </c>
       <c r="CJ45" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="CK45" t="n" s="10">
         <v>-0.1</v>
@@ -17076,7 +17584,7 @@
         <v>0.4</v>
       </c>
       <c r="CN45" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="CO45" t="n" s="10">
         <v>0.4</v>
@@ -17094,13 +17602,13 @@
         <v>-0.4</v>
       </c>
       <c r="CT45" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="CU45" t="n" s="10">
         <v>-0.5</v>
       </c>
       <c r="CV45" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="CW45" t="n" s="10">
         <v>0.1</v>
@@ -17112,84 +17620,96 @@
         <v>0.1</v>
       </c>
       <c r="CZ45" t="n" s="10">
+        <v>-0.2</v>
+      </c>
+      <c r="DA45" t="n" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="DB45" t="n" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="DC45" t="n" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="DD45" t="n" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="DE45" t="n" s="10">
         <v>-0.3</v>
       </c>
-      <c r="DA45" t="n" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="DB45" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="DC45" t="n" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="DD45" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="DE45" t="n" s="10">
-        <v>-0.1</v>
-      </c>
       <c r="DF45" t="n" s="10">
         <v>0.1</v>
       </c>
       <c r="DG45" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="DH45" t="n" s="10">
-        <v>-0.4</v>
+        <v>0.0</v>
       </c>
       <c r="DI45" t="n" s="10">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="DJ45" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="DK45" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="DL45" t="n" s="10">
-        <v>-1.5</v>
+        <v>-1.2</v>
       </c>
       <c r="DM45" t="n" s="10">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="DN45" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="DO45" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="DP45" t="n" s="10">
-        <v>-2.2</v>
+        <v>-1.8</v>
       </c>
       <c r="DQ45" t="n" s="10">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="DR45" t="n" s="10">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="DS45" t="n" s="10">
-        <v>2.1</v>
+        <v>2.0</v>
       </c>
       <c r="DT45" t="n" s="10">
-        <v>-2.7</v>
+        <v>-2.4</v>
       </c>
       <c r="DU45" t="n" s="10">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="DV45" t="n" s="10">
-        <v>-0.3</v>
+        <v>0.2</v>
+      </c>
+      <c r="DW45" t="n" s="10">
+        <v>1.1</v>
+      </c>
+      <c r="DX45" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY45" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ45" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="9">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s" s="13">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D46" t="n" s="10">
         <v>-1.0</v>
@@ -17201,7 +17721,7 @@
         <v>0.7</v>
       </c>
       <c r="G46" t="n" s="10">
-        <v>-1.2</v>
+        <v>-1.3</v>
       </c>
       <c r="H46" t="n" s="10">
         <v>0.3</v>
@@ -17249,7 +17769,7 @@
         <v>0.1</v>
       </c>
       <c r="W46" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X46" t="n" s="10">
         <v>0.2</v>
@@ -17270,7 +17790,7 @@
         <v>0.4</v>
       </c>
       <c r="AD46" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AE46" t="n" s="10">
         <v>-0.1</v>
@@ -17351,7 +17871,7 @@
         <v>0.7</v>
       </c>
       <c r="BE46" t="n" s="10">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="BF46" t="n" s="10">
         <v>0.3</v>
@@ -17369,55 +17889,55 @@
         <v>-0.5</v>
       </c>
       <c r="BK46" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BL46" t="n" s="10">
         <v>0.6</v>
       </c>
       <c r="BM46" t="n" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="BN46" t="n" s="10">
         <v>1.1</v>
       </c>
       <c r="BO46" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="BP46" t="n" s="10">
         <v>0.2</v>
       </c>
       <c r="BQ46" t="n" s="10">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="BR46" t="n" s="10">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="BS46" t="n" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="BT46" t="n" s="10">
         <v>-0.5</v>
       </c>
       <c r="BU46" t="n" s="10">
-        <v>-0.5</v>
+        <v>-1.1</v>
       </c>
       <c r="BV46" t="n" s="10">
-        <v>-1.7</v>
+        <v>-0.9</v>
       </c>
       <c r="BW46" t="n" s="10">
-        <v>-1.8</v>
+        <v>-2.1</v>
       </c>
       <c r="BX46" t="n" s="10">
         <v>0.5</v>
       </c>
       <c r="BY46" t="n" s="10">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="BZ46" t="n" s="10">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="CA46" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="CB46" t="n" s="10">
         <v>0.0</v>
@@ -17477,7 +17997,7 @@
         <v>0.1</v>
       </c>
       <c r="CU46" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="CV46" t="n" s="10">
         <v>0.1</v>
@@ -17504,7 +18024,7 @@
         <v>0.4</v>
       </c>
       <c r="DD46" t="n" s="10">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="DE46" t="n" s="10">
         <v>0.7</v>
@@ -17522,57 +18042,69 @@
         <v>-1.1</v>
       </c>
       <c r="DJ46" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="DK46" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="DL46" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="DM46" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="DN46" t="n" s="10">
+        <v>-0.8</v>
+      </c>
+      <c r="DO46" t="n" s="10">
+        <v>-0.3</v>
+      </c>
+      <c r="DP46" t="n" s="10">
+        <v>-2.3</v>
+      </c>
+      <c r="DQ46" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="DR46" t="n" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="DS46" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="DT46" t="n" s="10">
+        <v>-0.2</v>
+      </c>
+      <c r="DU46" t="n" s="10">
         <v>-0.5</v>
       </c>
-      <c r="DO46" t="n" s="10">
-        <v>-0.4</v>
-      </c>
-      <c r="DP46" t="n" s="10">
-        <v>-2.1</v>
-      </c>
-      <c r="DQ46" t="n" s="10">
-        <v>3.1</v>
-      </c>
-      <c r="DR46" t="n" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="DS46" t="n" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="DT46" t="n" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="DU46" t="n" s="10">
-        <v>-0.7</v>
-      </c>
       <c r="DV46" t="n" s="10">
+        <v>-0.6</v>
+      </c>
+      <c r="DW46" t="n" s="10">
         <v>-0.3</v>
+      </c>
+      <c r="DX46" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY46" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ46" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="9">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s" s="13">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D47" t="n" s="10">
-        <v>-1.0</v>
+        <v>-0.9</v>
       </c>
       <c r="E47" t="n" s="10">
         <v>0.3</v>
@@ -17602,7 +18134,7 @@
         <v>0.0</v>
       </c>
       <c r="N47" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O47" t="n" s="10">
         <v>0.8</v>
@@ -17620,7 +18152,7 @@
         <v>0.3</v>
       </c>
       <c r="T47" t="n" s="10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="U47" t="n" s="10">
         <v>0.4</v>
@@ -17629,31 +18161,31 @@
         <v>0.2</v>
       </c>
       <c r="W47" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X47" t="n" s="10">
         <v>0.4</v>
       </c>
       <c r="Y47" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Z47" t="n" s="10">
         <v>0.9</v>
       </c>
       <c r="AA47" t="n" s="10">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AB47" t="n" s="10">
         <v>0.4</v>
       </c>
       <c r="AC47" t="n" s="10">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AD47" t="n" s="10">
         <v>0.7</v>
       </c>
       <c r="AE47" t="n" s="10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AF47" t="n" s="10">
         <v>0.3</v>
@@ -17686,7 +18218,7 @@
         <v>0.8</v>
       </c>
       <c r="AP47" t="n" s="10">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ47" t="n" s="10">
         <v>0.0</v>
@@ -17704,7 +18236,7 @@
         <v>0.6</v>
       </c>
       <c r="AV47" t="n" s="10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AW47" t="n" s="10">
         <v>0.4</v>
@@ -17737,7 +18269,7 @@
         <v>0.2</v>
       </c>
       <c r="BG47" t="n" s="10">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="BH47" t="n" s="10">
         <v>0.6</v>
@@ -17749,10 +18281,10 @@
         <v>0.7</v>
       </c>
       <c r="BK47" t="n" s="10">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BL47" t="n" s="10">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="BM47" t="n" s="10">
         <v>1.1</v>
@@ -17767,43 +18299,43 @@
         <v>0.7</v>
       </c>
       <c r="BQ47" t="n" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="BR47" t="n" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="BS47" t="n" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="BT47" t="n" s="10">
+        <v>-0.4</v>
+      </c>
+      <c r="BU47" t="n" s="10">
+        <v>-1.4</v>
+      </c>
+      <c r="BV47" t="n" s="10">
+        <v>-1.7</v>
+      </c>
+      <c r="BW47" t="n" s="10">
+        <v>-4.2</v>
+      </c>
+      <c r="BX47" t="n" s="10">
+        <v>-1.2</v>
+      </c>
+      <c r="BY47" t="n" s="10">
         <v>0.8</v>
       </c>
-      <c r="BR47" t="n" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="BS47" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="BT47" t="n" s="10">
-        <v>-0.5</v>
-      </c>
-      <c r="BU47" t="n" s="10">
-        <v>-0.8</v>
-      </c>
-      <c r="BV47" t="n" s="10">
-        <v>-1.9</v>
-      </c>
-      <c r="BW47" t="n" s="10">
-        <v>-4.5</v>
-      </c>
-      <c r="BX47" t="n" s="10">
-        <v>-1.1</v>
-      </c>
-      <c r="BY47" t="n" s="10">
-        <v>1.2</v>
-      </c>
       <c r="BZ47" t="n" s="10">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="CA47" t="n" s="10">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="CB47" t="n" s="10">
-        <v>2.1</v>
+        <v>2.0</v>
       </c>
       <c r="CC47" t="n" s="10">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="CD47" t="n" s="10">
         <v>1.2</v>
@@ -17893,66 +18425,78 @@
         <v>0.7</v>
       </c>
       <c r="DG47" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="DH47" t="n" s="10">
         <v>0.4</v>
       </c>
       <c r="DI47" t="n" s="10">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="DJ47" t="n" s="10">
         <v>0.0</v>
       </c>
       <c r="DK47" t="n" s="10">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="DL47" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="DM47" t="n" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="DN47" t="n" s="10">
         <v>-0.9</v>
       </c>
       <c r="DO47" t="n" s="10">
-        <v>-1.4</v>
+        <v>-1.1</v>
       </c>
       <c r="DP47" t="n" s="10">
-        <v>-8.5</v>
+        <v>-8.8</v>
       </c>
       <c r="DQ47" t="n" s="10">
         <v>7.7</v>
       </c>
       <c r="DR47" t="n" s="10">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="DS47" t="n" s="10">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="DT47" t="n" s="10">
-        <v>1.1</v>
+        <v>1.0</v>
       </c>
       <c r="DU47" t="n" s="10">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="DV47" t="n" s="10">
-        <v>0.9</v>
+        <v>0.3</v>
+      </c>
+      <c r="DW47" t="n" s="10">
+        <v>-0.6</v>
+      </c>
+      <c r="DX47" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY47" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ47" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="9">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s" s="13">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D48" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="E48" t="n" s="10">
         <v>-0.1</v>
@@ -17961,10 +18505,10 @@
         <v>0.1</v>
       </c>
       <c r="G48" t="n" s="10">
-        <v>-0.9</v>
+        <v>-1.0</v>
       </c>
       <c r="H48" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I48" t="n" s="10">
         <v>0.4</v>
@@ -17976,7 +18520,7 @@
         <v>1.3</v>
       </c>
       <c r="L48" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M48" t="n" s="10">
         <v>-0.1</v>
@@ -18027,7 +18571,7 @@
         <v>-0.2</v>
       </c>
       <c r="AC48" t="n" s="10">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="AD48" t="n" s="10">
         <v>-0.6</v>
@@ -18039,7 +18583,7 @@
         <v>-0.7</v>
       </c>
       <c r="AG48" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AH48" t="n" s="10">
         <v>-0.4</v>
@@ -18075,7 +18619,7 @@
         <v>0.3</v>
       </c>
       <c r="AS48" t="n" s="10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT48" t="n" s="10">
         <v>0.8</v>
@@ -18132,13 +18676,13 @@
         <v>-1.1</v>
       </c>
       <c r="BL48" t="n" s="10">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="BM48" t="n" s="10">
         <v>-0.6</v>
       </c>
       <c r="BN48" t="n" s="10">
-        <v>-1.1</v>
+        <v>-1.0</v>
       </c>
       <c r="BO48" t="n" s="10">
         <v>-0.4</v>
@@ -18150,34 +18694,34 @@
         <v>-0.3</v>
       </c>
       <c r="BR48" t="n" s="10">
-        <v>-0.4</v>
+        <v>0.0</v>
       </c>
       <c r="BS48" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="BT48" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="BU48" t="n" s="10">
         <v>0.3</v>
       </c>
       <c r="BV48" t="n" s="10">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="BW48" t="n" s="10">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="BX48" t="n" s="10">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="BY48" t="n" s="10">
         <v>-0.6</v>
       </c>
       <c r="BZ48" t="n" s="10">
-        <v>-0.9</v>
+        <v>-0.5</v>
       </c>
       <c r="CA48" t="n" s="10">
-        <v>-1.6</v>
+        <v>-1.9</v>
       </c>
       <c r="CB48" t="n" s="10">
         <v>-2.0</v>
@@ -18201,7 +18745,7 @@
         <v>-0.1</v>
       </c>
       <c r="CI48" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="CJ48" t="n" s="10">
         <v>0.2</v>
@@ -18276,66 +18820,78 @@
         <v>-0.2</v>
       </c>
       <c r="DH48" t="n" s="10">
+        <v>-0.4</v>
+      </c>
+      <c r="DI48" t="n" s="10">
+        <v>-0.6</v>
+      </c>
+      <c r="DJ48" t="n" s="10">
+        <v>-0.3</v>
+      </c>
+      <c r="DK48" t="n" s="10">
         <v>-0.5</v>
       </c>
-      <c r="DI48" t="n" s="10">
-        <v>-0.7</v>
-      </c>
-      <c r="DJ48" t="n" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="DK48" t="n" s="10">
-        <v>-0.4</v>
-      </c>
       <c r="DL48" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DM48" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="DN48" t="n" s="10">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="DO48" t="n" s="10">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="DP48" t="n" s="10">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="DQ48" t="n" s="10">
-        <v>-4.6</v>
+        <v>-4.2</v>
       </c>
       <c r="DR48" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="DS48" t="n" s="10">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="DT48" t="n" s="10">
         <v>-1.2</v>
       </c>
       <c r="DU48" t="n" s="10">
-        <v>-1.4</v>
+        <v>-0.8</v>
       </c>
       <c r="DV48" t="n" s="10">
-        <v>-1.2</v>
+        <v>-0.9</v>
+      </c>
+      <c r="DW48" t="n" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="DX48" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DY48" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="DZ48" t="s" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="12">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:DV2"/>
-    <mergeCell ref="A3:DV3"/>
-    <mergeCell ref="A4:DV4"/>
+    <mergeCell ref="A2:DZ2"/>
+    <mergeCell ref="A3:DZ3"/>
+    <mergeCell ref="A4:DZ4"/>
     <mergeCell ref="A5:B6"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:J5"/>
@@ -18368,14 +18924,15 @@
     <mergeCell ref="DK5:DN5"/>
     <mergeCell ref="DO5:DR5"/>
     <mergeCell ref="DS5:DV5"/>
-    <mergeCell ref="A7:DV7"/>
-    <mergeCell ref="A21:DV21"/>
-    <mergeCell ref="A35:DV35"/>
-    <mergeCell ref="A1:DV1"/>
+    <mergeCell ref="DW5:DZ5"/>
+    <mergeCell ref="A7:DZ7"/>
+    <mergeCell ref="A21:DZ21"/>
+    <mergeCell ref="A35:DZ35"/>
+    <mergeCell ref="A1:DZ1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:21:23&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:58:48&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/National accounts - Growth contributions to price-adjusted GDP quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Growth contributions to price-adjusted GDP quarters.xlsx
@@ -235,7 +235,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:58:33</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:13:27</t>
   </si>
 </sst>
 </file>
@@ -18932,7 +18932,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:58:48&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:13:33&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>